--- a/src/output-data/uyruk_perfomans.xlsx
+++ b/src/output-data/uyruk_perfomans.xlsx
@@ -91,229 +91,229 @@
     <t>b.occ_x005F_x000a_%</t>
   </si>
   <si>
-    <t>Ağustos</t>
+    <t>AĞUSTOS</t>
   </si>
   <si>
-    <t>Ekim</t>
+    <t>EKIM</t>
   </si>
   <si>
-    <t>Eylül</t>
+    <t>EYLÜL</t>
   </si>
   <si>
-    <t>Haziran</t>
+    <t>HAZIRAN</t>
   </si>
   <si>
-    <t>Kasım</t>
+    <t>KASIM</t>
   </si>
   <si>
-    <t>Mart</t>
+    <t>MART</t>
   </si>
   <si>
-    <t>Mayıs</t>
+    <t>MAYIS</t>
   </si>
   <si>
-    <t>Nisan</t>
+    <t>NISAN</t>
   </si>
   <si>
-    <t>Temmuz</t>
+    <t>TEMMUZ</t>
   </si>
   <si>
-    <t>Algeria</t>
+    <t>ALGERIA</t>
   </si>
   <si>
-    <t>Armenia</t>
+    <t>ARMENIA</t>
   </si>
   <si>
-    <t>Austria</t>
+    <t>AUSTRIA</t>
   </si>
   <si>
-    <t>Azerbaijan</t>
+    <t>AZERBAIJAN</t>
   </si>
   <si>
-    <t>Belarus</t>
+    <t>BELARUS</t>
   </si>
   <si>
-    <t>Belgium</t>
+    <t>BELGIUM</t>
   </si>
   <si>
-    <t>Bosnia</t>
+    <t>BOSNIA</t>
   </si>
   <si>
-    <t>Bulgaria</t>
+    <t>BULGARIA</t>
   </si>
   <si>
-    <t>Colombia</t>
+    <t>COLOMBIA</t>
   </si>
   <si>
-    <t>Czech Republic</t>
+    <t>CZECH REPUBLIC</t>
   </si>
   <si>
-    <t>Denmark</t>
+    <t>DENMARK</t>
   </si>
   <si>
-    <t>Estonia</t>
+    <t>ESTONIA</t>
   </si>
   <si>
-    <t>France</t>
+    <t>FRANCE</t>
   </si>
   <si>
-    <t>Georgia</t>
+    <t>GEORGIA</t>
   </si>
   <si>
-    <t>Germany</t>
+    <t>GERMANY</t>
   </si>
   <si>
-    <t>Greece</t>
+    <t>GREECE</t>
   </si>
   <si>
-    <t>Hungary</t>
+    <t>HUNGARY</t>
   </si>
   <si>
-    <t>Iran</t>
+    <t>IRAN</t>
   </si>
   <si>
-    <t>Iraq</t>
+    <t>IRAQ</t>
   </si>
   <si>
-    <t>Ireland</t>
+    <t>IRELAND</t>
   </si>
   <si>
-    <t>Italy</t>
+    <t>ITALY</t>
   </si>
   <si>
-    <t>Jordan</t>
+    <t>JORDAN</t>
   </si>
   <si>
-    <t>Kazakhstan</t>
+    <t>KAZAKHSTAN</t>
   </si>
   <si>
-    <t>Kktc</t>
+    <t>KKTC</t>
   </si>
   <si>
-    <t>Kosova</t>
+    <t>KOSOVA</t>
   </si>
   <si>
-    <t>Kyrgyzstan</t>
+    <t>KYRGYZSTAN</t>
   </si>
   <si>
-    <t>Latvia</t>
+    <t>LATVIA</t>
   </si>
   <si>
-    <t>Lebanon</t>
+    <t>LEBANON</t>
   </si>
   <si>
-    <t>Lithuania</t>
+    <t>LITHUANIA</t>
   </si>
   <si>
-    <t>Macedonia</t>
+    <t>MACEDONIA</t>
   </si>
   <si>
-    <t>Moldova</t>
+    <t>MOLDOVA</t>
   </si>
   <si>
-    <t>Nepal</t>
+    <t>NEPAL</t>
   </si>
   <si>
-    <t>Netherlands</t>
+    <t>NETHERLANDS</t>
   </si>
   <si>
-    <t>Norway</t>
+    <t>NORWAY</t>
   </si>
   <si>
-    <t>Poland</t>
+    <t>POLAND</t>
   </si>
   <si>
-    <t>Portugal</t>
+    <t>PORTUGAL</t>
   </si>
   <si>
-    <t>Romania</t>
+    <t>ROMANIA</t>
   </si>
   <si>
-    <t>Russian Federation</t>
+    <t>RUSSIAN FEDERATION</t>
   </si>
   <si>
-    <t>Serbia An Montenegr</t>
+    <t>SERBIA AN MONTENEGR</t>
   </si>
   <si>
-    <t>Slovakia</t>
+    <t>SLOVAKIA</t>
   </si>
   <si>
-    <t>Slovenia</t>
+    <t>SLOVENIA</t>
   </si>
   <si>
-    <t>Sweden</t>
+    <t>SWEDEN</t>
   </si>
   <si>
-    <t>Switzerland</t>
+    <t>SWITZERLAND</t>
   </si>
   <si>
-    <t>Tunisia</t>
+    <t>TUNISIA</t>
   </si>
   <si>
-    <t>Turkiye</t>
+    <t>TURKIYE</t>
   </si>
   <si>
-    <t>Ukraine</t>
+    <t>UKRAINE</t>
   </si>
   <si>
-    <t>United King</t>
+    <t>UNITED KING</t>
   </si>
   <si>
-    <t>United States</t>
+    <t>UNITED STATES</t>
   </si>
   <si>
-    <t>Uzbekistan</t>
+    <t>UZBEKISTAN</t>
   </si>
   <si>
-    <t>Finland</t>
+    <t>FINLAND</t>
   </si>
   <si>
-    <t>Albania</t>
+    <t>ALBANIA</t>
   </si>
   <si>
-    <t>Israel</t>
+    <t>ISRAEL</t>
   </si>
   <si>
-    <t>Luxembourg</t>
+    <t>LUXEMBOURG</t>
   </si>
   <si>
-    <t>Malta</t>
+    <t>MALTA</t>
   </si>
   <si>
-    <t>Syrian</t>
+    <t>SYRIAN</t>
   </si>
   <si>
-    <t>Australia</t>
+    <t>AUSTRALIA</t>
   </si>
   <si>
-    <t>Canada</t>
+    <t>CANADA</t>
   </si>
   <si>
-    <t>Kuwait</t>
+    <t>KUWAIT</t>
   </si>
   <si>
-    <t>Spain</t>
+    <t>SPAIN</t>
   </si>
   <si>
-    <t>Tajikistan</t>
+    <t>TAJIKISTAN</t>
   </si>
   <si>
-    <t>Brazil</t>
+    <t>BRAZIL</t>
   </si>
   <si>
-    <t>Malaysia</t>
+    <t>MALAYSIA</t>
   </si>
   <si>
-    <t>Morocco</t>
+    <t>MOROCCO</t>
   </si>
   <si>
-    <t>Saudi Arabia</t>
+    <t>SAUDI ARABIA</t>
   </si>
   <si>
-    <t>Bosna Hersek</t>
+    <t>BOSNA HERSEK</t>
   </si>
   <si>
-    <t>Unt Arab Emirates</t>
+    <t>UNT ARAB EMIRATES</t>
   </si>
   <si>
     <t>WEB</t>
@@ -421,31 +421,31 @@
     <t>TATILBON</t>
   </si>
   <si>
-    <t>Diğer Pazarlar</t>
+    <t>DIĞER PAZARLAR</t>
   </si>
   <si>
-    <t>Bdt</t>
+    <t>BDT</t>
   </si>
   <si>
-    <t>Avrupa</t>
+    <t>AVRUPA</t>
   </si>
   <si>
-    <t>Baltık</t>
+    <t>BALTIK</t>
   </si>
   <si>
-    <t>Balkan</t>
+    <t>BALKAN</t>
   </si>
   <si>
-    <t>Iskandinav</t>
+    <t>ISKANDINAV</t>
   </si>
   <si>
-    <t>Ortadoğu</t>
+    <t>ORTADOĞU</t>
   </si>
   <si>
-    <t>Iç Pazar</t>
+    <t>IÇ PAZAR</t>
   </si>
   <si>
-    <t>Rou</t>
+    <t>ROU</t>
   </si>
 </sst>
 </file>
